--- a/biology/Médecine/Actes_techniques_médicaux/Actes_techniques_médicaux.xlsx
+++ b/biology/Médecine/Actes_techniques_médicaux/Actes_techniques_médicaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actes_techniques_m%C3%A9dicaux</t>
+          <t>Actes_techniques_médicaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour l'assurance maladie française, les actes techniques médicaux (ATM) sont un code utilisé depuis [Quand ?] par la classification commune des actes médicaux (CCAM) dans le cadre de la transmission de données entre la sécurité sociale et les régimes complémentaires. 
 Le code ATM regroupe les actes techniques médicaux, hors imagerie.
